--- a/client/public/VC_Capability_Master.xlsx
+++ b/client/public/VC_Capability_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Project\Value chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB6AAD-6875-4939-B347-C8F58B67EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E235A0-3259-43C4-8864-DC4F28C5428A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Capability Master" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Capability Master'!$A$1:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Capability Master'!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="445">
   <si>
     <t>Capability Name</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Commercial</t>
   </si>
   <si>
-    <t>Shipping &amp; Logistics</t>
-  </si>
-  <si>
     <t>Value Chain Stage</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>Tools and practices to gather, process, and analyze market data</t>
   </si>
   <si>
-    <t>Market &amp; Customer Engagement</t>
-  </si>
-  <si>
     <t>Data Analytics, BI Tools</t>
   </si>
   <si>
@@ -287,9 +281,6 @@
     <t>Digital Marketing, CRM</t>
   </si>
   <si>
-    <t>Retail</t>
-  </si>
-  <si>
     <t>Pricing &amp; Quotation Engine</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>Designing optimal supply chain network (nodes, flow paths, transport modes, inventory points)</t>
   </si>
   <si>
-    <t>Network Design &amp; Demand Planning</t>
-  </si>
-  <si>
     <t>Supply Chain Design Tools (LLamasoft, AnyLogistix)</t>
   </si>
   <si>
@@ -554,9 +542,6 @@
     <t>Strategy, Sales</t>
   </si>
   <si>
-    <t>Shipping &amp; Logistics, Retail</t>
-  </si>
-  <si>
     <t>AI-Driven Demand Sensing</t>
   </si>
   <si>
@@ -1268,9 +1253,6 @@
     <t>Waste, Recall &amp; Circular Models</t>
   </si>
   <si>
-    <t>Stage Code</t>
-  </si>
-  <si>
     <t>Strategic Alignment</t>
   </si>
   <si>
@@ -1328,83 +1310,80 @@
     <t>MP8</t>
   </si>
   <si>
+    <t>Business Complexity</t>
+  </si>
+  <si>
+    <t>Number of Employees</t>
+  </si>
+  <si>
+    <t>Annual Revenues (US$)</t>
+  </si>
+  <si>
+    <t>Strategic Focus</t>
+  </si>
+  <si>
+    <t>Single Country</t>
+  </si>
+  <si>
+    <t>0-1,000</t>
+  </si>
+  <si>
+    <t>100,000-1M</t>
+  </si>
+  <si>
+    <t>Original Growth</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>1,000-10,000</t>
+  </si>
+  <si>
+    <t>1M-100M</t>
+  </si>
+  <si>
+    <t>Inorganic Growth (M&amp;A)</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>10,000-100,000</t>
+  </si>
+  <si>
+    <t>100M-1B</t>
+  </si>
+  <si>
+    <t>Cost Optimization</t>
+  </si>
+  <si>
+    <t>1B &amp; More</t>
+  </si>
+  <si>
+    <t>Digital Transformation</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>This is a temporary description and need to be changed later. Make sure to change it during production deployment</t>
+  </si>
+  <si>
+    <t>Shipping (Ocean Carrier - VOCC), Logistics (3PL/4PL/Forwarders - NVOCC)</t>
+  </si>
+  <si>
+    <t>Shipping (Ocean Carrier - VOCC), Logistics (3PL/4PL/Forwarders - NVOCC), Retail (General Merchandise)</t>
+  </si>
+  <si>
     <t>Business Type</t>
-  </si>
-  <si>
-    <t>Business Complexity</t>
-  </si>
-  <si>
-    <t>Number of Employees</t>
-  </si>
-  <si>
-    <t>Annual Revenues (US$)</t>
-  </si>
-  <si>
-    <t>Strategic Focus</t>
-  </si>
-  <si>
-    <t>Single Country</t>
-  </si>
-  <si>
-    <t>0-1,000</t>
-  </si>
-  <si>
-    <t>100,000-1M</t>
-  </si>
-  <si>
-    <t>Original Growth</t>
-  </si>
-  <si>
-    <t>LifeStyle</t>
-  </si>
-  <si>
-    <t>Regional</t>
-  </si>
-  <si>
-    <t>1,000-10,000</t>
-  </si>
-  <si>
-    <t>1M-100M</t>
-  </si>
-  <si>
-    <t>Inorganic Growth (M&amp;A)</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>10,000-100,000</t>
-  </si>
-  <si>
-    <t>100M-1B</t>
-  </si>
-  <si>
-    <t>Cost Optimization</t>
-  </si>
-  <si>
-    <t>Chemical</t>
-  </si>
-  <si>
-    <t>1B &amp; More</t>
-  </si>
-  <si>
-    <t>Digital Transformation</t>
-  </si>
-  <si>
-    <t>FMCG</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Telecom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1459,16 +1438,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1491,22 +1484,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1518,7 +1500,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1853,15 +1839,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634C1249-B9B4-468B-9CBA-1BACC3E9B3FF}">
-  <dimension ref="A1:E8"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.4140625" bestFit="1" customWidth="1"/>
@@ -1869,100 +1858,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>432</v>
+      <c r="A1" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>446</v>
+        <v>255</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>449</v>
+        <v>256</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>451</v>
+        <v>277</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1970,9 +1959,58 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>418</v>
-      </c>
+      <c r="A8" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1981,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F102E35E-4935-5A42-B778-F8B556F32FC8}">
-  <dimension ref="A2:C142"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1992,1436 +2030,1673 @@
     <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.08203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>319</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>319</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>319</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>340</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>340</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>340</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>340</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>340</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>340</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>340</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>361</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>361</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>361</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>361</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>361</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>382</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>382</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>382</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>411</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>411</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>411</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>411</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="C116" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>411</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>419</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>419</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>419</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>219</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>260</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>260</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>260</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>260</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>260</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>260</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>260</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>260</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>261</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>261</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>261</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>261</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>261</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>282</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>282</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>282</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>282</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>282</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>282</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>303</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>303</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>303</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>303</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>303</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>303</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>303</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>303</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>303</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>303</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>324</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>324</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>324</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>324</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>324</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>324</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>324</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>324</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>324</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>324</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>324</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>345</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>345</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>345</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>345</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>345</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>345</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>345</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>345</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>345</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>366</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>366</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>366</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>366</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>366</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>366</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>366</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>366</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+        <v>409</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>366</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>387</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>387</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>387</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>387</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>387</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>387</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>387</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>387</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>387</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>387</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>387</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>417</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>417</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>417</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C136" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>417</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>417</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>417</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>417</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>417</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>417</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>416</v>
+      <c r="D119" s="12" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3572,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEDF3A-A049-6040-B82C-825BD7BF40EE}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -3583,7 +3858,7 @@
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="22" bestFit="1" customWidth="1"/>
@@ -3605,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -3629,24 +3904,24 @@
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -3664,30 +3939,30 @@
         <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -3705,30 +3980,30 @@
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -3746,30 +4021,30 @@
         <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -3787,30 +4062,30 @@
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>48</v>
+      <c r="D6" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -3828,30 +4103,30 @@
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>48</v>
+      <c r="D7" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -3869,30 +4144,30 @@
         <v>7</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>3</v>
@@ -3910,36 +4185,36 @@
         <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>4</v>
@@ -3951,36 +4226,36 @@
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
@@ -3992,30 +4267,30 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -4033,30 +4308,30 @@
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>3</v>
@@ -4074,80 +4349,121 @@
         <v>7</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>52</v>
+      <c r="K13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>44</v>
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>5</v>
@@ -4156,80 +4472,80 @@
         <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>5</v>
@@ -4238,162 +4554,162 @@
         <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>114</v>
+        <v>138</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>41</v>
+        <v>141</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>114</v>
+        <v>144</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>150</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>81</v>
+        <v>153</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>114</v>
+        <v>156</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>7</v>
@@ -4402,183 +4718,102 @@
         <v>7</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>114</v>
+        <v>162</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>81</v>
+        <v>165</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>114</v>
+        <v>168</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>81</v>
+      <c r="M23" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M23" xr:uid="{6AEEDF3A-A049-6040-B82C-825BD7BF40EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/client/public/VC_Capability_Master.xlsx
+++ b/client/public/VC_Capability_Master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Project\Value chain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Project\ValueChainSite\ValueChainIntelligence\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E235A0-3259-43C4-8864-DC4F28C5428A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34AB3E-B0B3-4B9D-AB3F-6F1849AFCCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Capability Name</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>Media Production</t>
   </si>
   <si>
-    <t>Shipping (Ocean Carrier - VOCC)</t>
-  </si>
-  <si>
     <t>Logistics (3PL/4PL/Forwarders - NVOCC)</t>
   </si>
   <si>
@@ -1319,9 +1316,6 @@
     <t>Annual Revenues (US$)</t>
   </si>
   <si>
-    <t>Strategic Focus</t>
-  </si>
-  <si>
     <t>Single Country</t>
   </si>
   <si>
@@ -1331,9 +1325,6 @@
     <t>100,000-1M</t>
   </si>
   <si>
-    <t>Original Growth</t>
-  </si>
-  <si>
     <t>Regional</t>
   </si>
   <si>
@@ -1343,9 +1334,6 @@
     <t>1M-100M</t>
   </si>
   <si>
-    <t>Inorganic Growth (M&amp;A)</t>
-  </si>
-  <si>
     <t>Global</t>
   </si>
   <si>
@@ -1355,28 +1343,22 @@
     <t>100M-1B</t>
   </si>
   <si>
-    <t>Cost Optimization</t>
-  </si>
-  <si>
     <t>1B &amp; More</t>
   </si>
   <si>
-    <t>Digital Transformation</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>This is a temporary description and need to be changed later. Make sure to change it during production deployment</t>
   </si>
   <si>
-    <t>Shipping (Ocean Carrier - VOCC), Logistics (3PL/4PL/Forwarders - NVOCC)</t>
-  </si>
-  <si>
-    <t>Shipping (Ocean Carrier - VOCC), Logistics (3PL/4PL/Forwarders - NVOCC), Retail (General Merchandise)</t>
-  </si>
-  <si>
     <t>Business Type</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Shipping, Logistics (3PL/4PL/Forwarders - NVOCC)</t>
+  </si>
+  <si>
+    <t>Shipping, Logistics (3PL/4PL/Forwarders - NVOCC), Retail (General Merchandise)</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +1824,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1854,163 +1836,123 @@
     <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>214</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>255</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>256</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
-        <v>277</v>
-      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
-        <v>298</v>
-      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>319</v>
-      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>340</v>
-      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>361</v>
-      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
-        <v>382</v>
-      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>411</v>
-      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,7 +1964,7 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -2049,7 +1991,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>174</v>
@@ -2058,12 +2000,12 @@
         <v>175</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>176</v>
@@ -2072,12 +2014,12 @@
         <v>177</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>178</v>
@@ -2086,12 +2028,12 @@
         <v>179</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>180</v>
@@ -2100,12 +2042,12 @@
         <v>181</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>182</v>
@@ -2114,12 +2056,12 @@
         <v>183</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>184</v>
@@ -2128,12 +2070,12 @@
         <v>185</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>186</v>
@@ -2142,12 +2084,12 @@
         <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>187</v>
@@ -2156,12 +2098,12 @@
         <v>188</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>189</v>
@@ -2170,12 +2112,12 @@
         <v>190</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>191</v>
@@ -2184,12 +2126,12 @@
         <v>192</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>194</v>
@@ -2198,12 +2140,12 @@
         <v>195</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>196</v>
@@ -2212,12 +2154,12 @@
         <v>197</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>198</v>
@@ -2226,12 +2168,12 @@
         <v>199</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>200</v>
@@ -2240,12 +2182,12 @@
         <v>201</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>202</v>
@@ -2254,12 +2196,12 @@
         <v>203</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>204</v>
@@ -2268,12 +2210,12 @@
         <v>205</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>206</v>
@@ -2282,12 +2224,12 @@
         <v>207</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>208</v>
@@ -2296,12 +2238,12 @@
         <v>209</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>210</v>
@@ -2310,12 +2252,12 @@
         <v>211</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>212</v>
@@ -2324,7 +2266,7 @@
         <v>213</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2338,7 +2280,7 @@
         <v>216</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2352,7 +2294,7 @@
         <v>218</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2366,7 +2308,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2380,7 +2322,7 @@
         <v>222</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2394,7 +2336,7 @@
         <v>224</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2408,7 +2350,7 @@
         <v>226</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2422,7 +2364,7 @@
         <v>228</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2436,7 +2378,7 @@
         <v>230</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2450,7 +2392,7 @@
         <v>232</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2464,7 +2406,7 @@
         <v>234</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2478,7 +2420,7 @@
         <v>236</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2492,7 +2434,7 @@
         <v>238</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2506,7 +2448,7 @@
         <v>240</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2520,7 +2462,7 @@
         <v>242</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2534,7 +2476,7 @@
         <v>244</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2548,7 +2490,7 @@
         <v>246</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2562,7 +2504,7 @@
         <v>248</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2576,7 +2518,7 @@
         <v>250</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2590,7 +2532,7 @@
         <v>252</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2604,7 +2546,7 @@
         <v>254</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2618,7 +2560,7 @@
         <v>258</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2632,7 +2574,7 @@
         <v>260</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2646,7 +2588,7 @@
         <v>262</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2660,7 +2602,7 @@
         <v>264</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2674,7 +2616,7 @@
         <v>266</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2688,7 +2630,7 @@
         <v>268</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2702,7 +2644,7 @@
         <v>270</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2716,7 +2658,7 @@
         <v>272</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2730,7 +2672,7 @@
         <v>274</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2744,7 +2686,7 @@
         <v>276</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2758,7 +2700,7 @@
         <v>279</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2772,7 +2714,7 @@
         <v>281</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2786,7 +2728,7 @@
         <v>283</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2800,7 +2742,7 @@
         <v>285</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2814,7 +2756,7 @@
         <v>287</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2828,7 +2770,7 @@
         <v>289</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2842,7 +2784,7 @@
         <v>291</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2856,7 +2798,7 @@
         <v>293</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2870,7 +2812,7 @@
         <v>295</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2884,7 +2826,7 @@
         <v>297</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2898,7 +2840,7 @@
         <v>300</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2912,7 +2854,7 @@
         <v>302</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2926,7 +2868,7 @@
         <v>304</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2940,7 +2882,7 @@
         <v>306</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2954,7 +2896,7 @@
         <v>308</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2968,7 +2910,7 @@
         <v>310</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2982,7 +2924,7 @@
         <v>312</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2996,7 +2938,7 @@
         <v>314</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -3010,7 +2952,7 @@
         <v>316</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -3024,7 +2966,7 @@
         <v>318</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -3038,7 +2980,7 @@
         <v>321</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -3052,7 +2994,7 @@
         <v>323</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3066,7 +3008,7 @@
         <v>325</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3080,7 +3022,7 @@
         <v>327</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3094,7 +3036,7 @@
         <v>329</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -3108,7 +3050,7 @@
         <v>331</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -3122,7 +3064,7 @@
         <v>333</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -3136,7 +3078,7 @@
         <v>335</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -3150,7 +3092,7 @@
         <v>337</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -3164,7 +3106,7 @@
         <v>339</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -3178,7 +3120,7 @@
         <v>342</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -3192,7 +3134,7 @@
         <v>344</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -3206,7 +3148,7 @@
         <v>346</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -3220,7 +3162,7 @@
         <v>348</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -3234,7 +3176,7 @@
         <v>350</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -3248,7 +3190,7 @@
         <v>352</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -3262,7 +3204,7 @@
         <v>354</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -3276,7 +3218,7 @@
         <v>356</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -3290,7 +3232,7 @@
         <v>358</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -3304,7 +3246,7 @@
         <v>360</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -3318,7 +3260,7 @@
         <v>363</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -3332,7 +3274,7 @@
         <v>365</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -3346,7 +3288,7 @@
         <v>367</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -3360,7 +3302,7 @@
         <v>369</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -3374,7 +3316,7 @@
         <v>371</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -3388,7 +3330,7 @@
         <v>373</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -3402,7 +3344,7 @@
         <v>375</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -3416,7 +3358,7 @@
         <v>377</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -3430,7 +3372,7 @@
         <v>379</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
@@ -3444,7 +3386,7 @@
         <v>381</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
@@ -3458,7 +3400,7 @@
         <v>384</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -3472,7 +3414,7 @@
         <v>386</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -3486,7 +3428,7 @@
         <v>388</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -3500,7 +3442,7 @@
         <v>390</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -3514,7 +3456,7 @@
         <v>392</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -3528,7 +3470,7 @@
         <v>394</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3542,7 +3484,7 @@
         <v>396</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -3556,7 +3498,7 @@
         <v>398</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -3570,7 +3512,7 @@
         <v>400</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
@@ -3584,7 +3526,7 @@
         <v>402</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -3592,13 +3534,13 @@
         <v>411</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -3606,13 +3548,13 @@
         <v>411</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>404</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -3620,13 +3562,13 @@
         <v>411</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>405</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -3634,13 +3576,13 @@
         <v>411</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>406</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -3648,13 +3590,13 @@
         <v>411</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>407</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3662,13 +3604,13 @@
         <v>411</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>408</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3676,13 +3618,13 @@
         <v>411</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -3690,13 +3632,13 @@
         <v>411</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>410</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3849,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEDF3A-A049-6040-B82C-825BD7BF40EE}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -4276,7 +4218,7 @@
         <v>96</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -4522,7 +4464,7 @@
         <v>129</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -4727,7 +4669,7 @@
         <v>159</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -4768,7 +4710,7 @@
         <v>165</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">

--- a/client/public/VC_Capability_Master.xlsx
+++ b/client/public/VC_Capability_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Project\ValueChainSite\ValueChainIntelligence\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34AB3E-B0B3-4B9D-AB3F-6F1849AFCCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6309EC1-81DA-4D7C-9001-C119FF0084EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="435">
   <si>
     <t>Capability Name</t>
   </si>
@@ -1310,34 +1310,22 @@
     <t>Business Complexity</t>
   </si>
   <si>
-    <t>Number of Employees</t>
-  </si>
-  <si>
     <t>Annual Revenues (US$)</t>
   </si>
   <si>
     <t>Single Country</t>
   </si>
   <si>
-    <t>0-1,000</t>
-  </si>
-  <si>
     <t>100,000-1M</t>
   </si>
   <si>
     <t>Regional</t>
   </si>
   <si>
-    <t>1,000-10,000</t>
-  </si>
-  <si>
     <t>1M-100M</t>
   </si>
   <si>
     <t>Global</t>
-  </si>
-  <si>
-    <t>10,000-100,000</t>
   </si>
   <si>
     <t>100M-1B</t>
@@ -1824,23 +1812,22 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="46.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>421</v>
@@ -1848,111 +1835,90 @@
       <c r="C1" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>412</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>214</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>255</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>256</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1991,7 +1957,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>174</v>
@@ -2000,12 +1966,12 @@
         <v>175</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>176</v>
@@ -2014,12 +1980,12 @@
         <v>177</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>178</v>
@@ -2028,12 +1994,12 @@
         <v>179</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>180</v>
@@ -2042,12 +2008,12 @@
         <v>181</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>182</v>
@@ -2056,12 +2022,12 @@
         <v>183</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>184</v>
@@ -2070,12 +2036,12 @@
         <v>185</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>186</v>
@@ -2084,12 +2050,12 @@
         <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>187</v>
@@ -2098,12 +2064,12 @@
         <v>188</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>189</v>
@@ -2112,12 +2078,12 @@
         <v>190</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>191</v>
@@ -2126,7 +2092,7 @@
         <v>192</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2140,7 +2106,7 @@
         <v>195</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -2154,7 +2120,7 @@
         <v>197</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -2168,7 +2134,7 @@
         <v>199</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -2182,7 +2148,7 @@
         <v>201</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -2196,7 +2162,7 @@
         <v>203</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2210,7 +2176,7 @@
         <v>205</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2224,7 +2190,7 @@
         <v>207</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2238,7 +2204,7 @@
         <v>209</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2252,7 +2218,7 @@
         <v>211</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2266,7 +2232,7 @@
         <v>213</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2280,7 +2246,7 @@
         <v>216</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2294,7 +2260,7 @@
         <v>218</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2308,7 +2274,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2322,7 +2288,7 @@
         <v>222</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2336,7 +2302,7 @@
         <v>224</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2350,7 +2316,7 @@
         <v>226</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2364,7 +2330,7 @@
         <v>228</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2378,7 +2344,7 @@
         <v>230</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2392,7 +2358,7 @@
         <v>232</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2406,7 +2372,7 @@
         <v>234</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2420,7 +2386,7 @@
         <v>236</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2434,7 +2400,7 @@
         <v>238</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2448,7 +2414,7 @@
         <v>240</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2462,7 +2428,7 @@
         <v>242</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2476,7 +2442,7 @@
         <v>244</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2490,7 +2456,7 @@
         <v>246</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2504,7 +2470,7 @@
         <v>248</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2518,7 +2484,7 @@
         <v>250</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2532,7 +2498,7 @@
         <v>252</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2546,7 +2512,7 @@
         <v>254</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2560,7 +2526,7 @@
         <v>258</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2574,7 +2540,7 @@
         <v>260</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2588,7 +2554,7 @@
         <v>262</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2602,7 +2568,7 @@
         <v>264</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2616,7 +2582,7 @@
         <v>266</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2630,7 +2596,7 @@
         <v>268</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2644,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2658,7 +2624,7 @@
         <v>272</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2672,7 +2638,7 @@
         <v>274</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2686,7 +2652,7 @@
         <v>276</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2700,7 +2666,7 @@
         <v>279</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2714,7 +2680,7 @@
         <v>281</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2728,7 +2694,7 @@
         <v>283</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2742,7 +2708,7 @@
         <v>285</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2756,7 +2722,7 @@
         <v>287</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2770,7 +2736,7 @@
         <v>289</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2784,7 +2750,7 @@
         <v>291</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2798,7 +2764,7 @@
         <v>293</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2812,7 +2778,7 @@
         <v>295</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2826,7 +2792,7 @@
         <v>297</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2840,7 +2806,7 @@
         <v>300</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2854,7 +2820,7 @@
         <v>302</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2868,7 +2834,7 @@
         <v>304</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2882,7 +2848,7 @@
         <v>306</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2896,7 +2862,7 @@
         <v>308</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2910,7 +2876,7 @@
         <v>310</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2924,7 +2890,7 @@
         <v>312</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2938,7 +2904,7 @@
         <v>314</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -2952,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2966,7 +2932,7 @@
         <v>318</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2980,7 +2946,7 @@
         <v>321</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -2994,7 +2960,7 @@
         <v>323</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3008,7 +2974,7 @@
         <v>325</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3022,7 +2988,7 @@
         <v>327</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3036,7 +3002,7 @@
         <v>329</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -3050,7 +3016,7 @@
         <v>331</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -3064,7 +3030,7 @@
         <v>333</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -3078,7 +3044,7 @@
         <v>335</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -3092,7 +3058,7 @@
         <v>337</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -3106,7 +3072,7 @@
         <v>339</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -3120,7 +3086,7 @@
         <v>342</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -3134,7 +3100,7 @@
         <v>344</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -3148,7 +3114,7 @@
         <v>346</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -3162,7 +3128,7 @@
         <v>348</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -3176,7 +3142,7 @@
         <v>350</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -3190,7 +3156,7 @@
         <v>352</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -3204,7 +3170,7 @@
         <v>354</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -3218,7 +3184,7 @@
         <v>356</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -3232,7 +3198,7 @@
         <v>358</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -3246,7 +3212,7 @@
         <v>360</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -3260,7 +3226,7 @@
         <v>363</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -3274,7 +3240,7 @@
         <v>365</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -3288,7 +3254,7 @@
         <v>367</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -3302,7 +3268,7 @@
         <v>369</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -3316,7 +3282,7 @@
         <v>371</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -3330,7 +3296,7 @@
         <v>373</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -3344,7 +3310,7 @@
         <v>375</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -3358,7 +3324,7 @@
         <v>377</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -3372,7 +3338,7 @@
         <v>379</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
@@ -3386,7 +3352,7 @@
         <v>381</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
@@ -3400,7 +3366,7 @@
         <v>384</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -3414,7 +3380,7 @@
         <v>386</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -3428,7 +3394,7 @@
         <v>388</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -3442,7 +3408,7 @@
         <v>390</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -3456,7 +3422,7 @@
         <v>392</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -3470,7 +3436,7 @@
         <v>394</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3484,7 +3450,7 @@
         <v>396</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -3498,7 +3464,7 @@
         <v>398</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -3512,7 +3478,7 @@
         <v>400</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
@@ -3526,7 +3492,7 @@
         <v>402</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -3540,7 +3506,7 @@
         <v>403</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -3554,7 +3520,7 @@
         <v>404</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -3568,7 +3534,7 @@
         <v>405</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -3582,7 +3548,7 @@
         <v>406</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -3596,7 +3562,7 @@
         <v>407</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3610,7 +3576,7 @@
         <v>408</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3624,7 +3590,7 @@
         <v>409</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -3638,7 +3604,7 @@
         <v>410</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3791,7 +3757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEDF3A-A049-6040-B82C-825BD7BF40EE}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -4218,7 +4184,7 @@
         <v>96</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -4464,7 +4430,7 @@
         <v>129</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -4669,7 +4635,7 @@
         <v>159</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -4710,7 +4676,7 @@
         <v>165</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">

--- a/client/public/VC_Capability_Master.xlsx
+++ b/client/public/VC_Capability_Master.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Project\ValueChainSite\ValueChainIntelligence\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6309EC1-81DA-4D7C-9001-C119FF0084EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9F6F1-1ECA-449C-88B8-0D16FF4C9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="5" r:id="rId1"/>
     <sheet name="Value Chain Master" sheetId="4" r:id="rId2"/>
     <sheet name="Capability Attributes" sheetId="2" r:id="rId3"/>
     <sheet name="Capability Master" sheetId="1" r:id="rId4"/>
+    <sheet name="Maturity Mapping" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Capability Master'!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Maturity Mapping'!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="449">
   <si>
     <t>Capability Name</t>
   </si>
@@ -1347,13 +1349,55 @@
   </si>
   <si>
     <t>Shipping, Logistics (3PL/4PL/Forwarders - NVOCC), Retail (General Merchandise)</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>Technology Maturity Levels</t>
+  </si>
+  <si>
+    <t>Business Maturity Levels</t>
+  </si>
+  <si>
+    <t>Maturity Level</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Manual/Offline</t>
+  </si>
+  <si>
+    <t>Digitized</t>
+  </si>
+  <si>
+    <t>Integrated Systems</t>
+  </si>
+  <si>
+    <t>Smart / Connected</t>
+  </si>
+  <si>
+    <t>Intelligent / Predictive</t>
+  </si>
+  <si>
+    <t>Ad hoc</t>
+  </si>
+  <si>
+    <t>Statndardized</t>
+  </si>
+  <si>
+    <t>Integrated</t>
+  </si>
+  <si>
+    <t>Leading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1416,6 +1460,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1458,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1475,6 +1537,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1814,7 +1885,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4724,4 +4795,328 @@
   <autoFilter ref="A1:M23" xr:uid="{6AEEDF3A-A049-6040-B82C-825BD7BF40EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DDD45B-FE83-47AE-9E68-616AB411BDE9}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>446</v>
+      </c>
+      <c r="B19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C26" xr:uid="{97DDD45B-FE83-47AE-9E68-616AB411BDE9}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/client/public/VC_Capability_Master.xlsx
+++ b/client/public/VC_Capability_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Project\ValueChainSite\ValueChainIntelligence\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9F6F1-1ECA-449C-88B8-0D16FF4C9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C81D840-80DB-472E-B5B9-064D5BF82106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Capability Attributes" sheetId="2" r:id="rId3"/>
     <sheet name="Capability Master" sheetId="1" r:id="rId4"/>
     <sheet name="Maturity Mapping" sheetId="6" r:id="rId5"/>
+    <sheet name="Buy or Build" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Capability Master'!$A$1:$M$23</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="457">
   <si>
     <t>Capability Name</t>
   </si>
@@ -1391,6 +1392,33 @@
   </si>
   <si>
     <t>Leading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capability Name </t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building this capability does not provide any competitive edge. Hence, recommendation is to buy </t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building this capability provides a competitive edge. Hence, recommendation is to build </t>
+  </si>
+  <si>
+    <t>Buy/Build Description</t>
+  </si>
+  <si>
+    <t>Suggestions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example 1
+Example 2
+Build
+</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1545,6 +1573,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3828,8 +3859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEDF3A-A049-6040-B82C-825BD7BF40EE}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -4801,7 +4832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DDD45B-FE83-47AE-9E68-616AB411BDE9}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -5119,4 +5150,415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CB7485-6F0B-48FA-9047-35ECC73755D2}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="64" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/client/public/VC_Capability_Master.xlsx
+++ b/client/public/VC_Capability_Master.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Project\ValueChainSite\ValueChainIntelligence\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C81D840-80DB-472E-B5B9-064D5BF82106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92547663-7AAE-4889-BB99-06E85F0DAFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BD5DD5E2-53C9-C848-BED8-5645BBCDEF26}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="5" r:id="rId1"/>
     <sheet name="Value Chain Master" sheetId="4" r:id="rId2"/>
-    <sheet name="Capability Attributes" sheetId="2" r:id="rId3"/>
-    <sheet name="Capability Master" sheetId="1" r:id="rId4"/>
-    <sheet name="Maturity Mapping" sheetId="6" r:id="rId5"/>
-    <sheet name="Buy or Build" sheetId="7" r:id="rId6"/>
+    <sheet name="Industry Specific VC" sheetId="8" r:id="rId3"/>
+    <sheet name="Capability Attributes" sheetId="2" r:id="rId4"/>
+    <sheet name="Capability Master" sheetId="1" r:id="rId5"/>
+    <sheet name="Maturity Mapping" sheetId="6" r:id="rId6"/>
+    <sheet name="Buy or Build" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Capability Master'!$A$1:$M$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Maturity Mapping'!$A$1:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Capability Master'!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Maturity Mapping'!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="240">
   <si>
     <t>Capability Name</t>
   </si>
@@ -629,687 +630,18 @@
     <t>Value Chain</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>Customer Onboarding &amp; Pricing</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>Multimodal Network Planning</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>Order Fulfillment &amp; Execution</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>Transportation &amp; Fleet Management</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>Warehouse &amp; Inventory Operations</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>Visibility &amp; Exception Management</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>Billing, Costing &amp; Profitability</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>Partner Integration &amp; Collaboration</t>
-  </si>
-  <si>
-    <t>L9</t>
-  </si>
-  <si>
-    <t>Customer Experience &amp; Retention</t>
-  </si>
-  <si>
-    <t>L10</t>
-  </si>
-  <si>
-    <t>ESG, Compliance &amp; Quality Standards</t>
-  </si>
-  <si>
     <t>Terminal Operator (Port/Yard/ICD/Depot)</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Berth &amp; Yard Planning</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Gate &amp; Access Management</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>Vessel/Train/Truck Interface Ops</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Cargo Handling &amp; Equipment Ops</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>Inventory &amp; Asset Tracking</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>Maintenance &amp; Resource Allocation</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>Billing, Invoicing &amp; Tariffs</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>Safety, Security &amp; Compliance</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>Digital Integration with Carriers &amp; Customs</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>Customer Service &amp; Commercial Mgmt</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Merchandising &amp; Range Planning</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Procurement &amp; Vendor Management</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Demand Forecasting &amp; Inventory Planning</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>Inbound Logistics &amp; DC Operations</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>Store Operations &amp; Planogram Execution</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>Omnichannel Fulfillment</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>Promotions &amp; Campaign Management</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Customer Experience &amp; Loyalty</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>Returns &amp; Reverse Logistics</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>ESG &amp; Regulatory Compliance</t>
-  </si>
-  <si>
     <t>Retail (General Merchandise)</t>
   </si>
   <si>
     <t>Lifestyle (Fashion, Footwear, Home Décor)</t>
   </si>
   <si>
-    <t>LS1</t>
-  </si>
-  <si>
-    <t>Brand &amp; Collection Strategy</t>
-  </si>
-  <si>
-    <t>LS2</t>
-  </si>
-  <si>
-    <t>Sourcing &amp; Production Planning</t>
-  </si>
-  <si>
-    <t>LS3</t>
-  </si>
-  <si>
-    <t>Supplier &amp; Vendor Collaboration</t>
-  </si>
-  <si>
-    <t>LS4</t>
-  </si>
-  <si>
-    <t>Inbound Logistics &amp; Warehousing</t>
-  </si>
-  <si>
-    <t>LS5</t>
-  </si>
-  <si>
-    <t>Demand Sensing &amp; Allocation</t>
-  </si>
-  <si>
-    <t>LS6</t>
-  </si>
-  <si>
-    <t>Omnichannel Sales &amp; Fulfillment</t>
-  </si>
-  <si>
-    <t>LS7</t>
-  </si>
-  <si>
-    <t>Visual Merchandising &amp; Store Execution</t>
-  </si>
-  <si>
-    <t>LS8</t>
-  </si>
-  <si>
-    <t>Customer Engagement &amp; Loyalty</t>
-  </si>
-  <si>
-    <t>LS9</t>
-  </si>
-  <si>
-    <t>Returns, Resale &amp; Circular Models</t>
-  </si>
-  <si>
-    <t>LS10</t>
-  </si>
-  <si>
-    <t>Ethical Sourcing &amp; ESG Compliance</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Product Development &amp; Regulatory Planning</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Bulk Production &amp; Batching</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Packaging &amp; Labeling</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>Hazardous Materials Logistics</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>Terminal &amp; Storage Integration</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>Order Fulfillment &amp; Distribution</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>Safety, QA/QC &amp; Compliance</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>Customer Technical Support</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>Inventory Optimization</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>Sustainability, REACH &amp; Environmental Reporting</t>
-  </si>
-  <si>
-    <t>FMCG (Fast Moving Consumer Goods)</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Brand Strategy &amp; Product Lifecycle</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>Demand Planning &amp; S&amp;OP</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>Manufacturing &amp; Line Scheduling</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>Primary &amp; Secondary Distribution</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>Channel Strategy &amp; Trade Promotions</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>Inventory &amp; Shelf Management</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>E-commerce Fulfillment</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>Returns &amp; Waste Management</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>Consumer Insights &amp; Loyalty</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>Sustainability &amp; Ethical Sourcing</t>
-  </si>
-  <si>
-    <t>Technology (Hardware, IoT, Components)</t>
-  </si>
-  <si>
-    <t>TE1</t>
-  </si>
-  <si>
-    <t>Product Design &amp; Lifecycle Planning</t>
-  </si>
-  <si>
-    <t>TE2</t>
-  </si>
-  <si>
-    <t>Component Sourcing &amp; BOM Mgmt</t>
-  </si>
-  <si>
-    <t>TE3</t>
-  </si>
-  <si>
-    <t>Contract Manufacturing &amp; Assembly</t>
-  </si>
-  <si>
-    <t>TE4</t>
-  </si>
-  <si>
-    <t>Logistics &amp; Distribution Planning</t>
-  </si>
-  <si>
-    <t>TE5</t>
-  </si>
-  <si>
-    <t>Inventory Management &amp; Lead Time Optimization</t>
-  </si>
-  <si>
-    <t>TE6</t>
-  </si>
-  <si>
-    <t>Channel/Reseller Enablement</t>
-  </si>
-  <si>
-    <t>TE7</t>
-  </si>
-  <si>
-    <t>Service, Warranty &amp; Reverse Logistics</t>
-  </si>
-  <si>
-    <t>TE8</t>
-  </si>
-  <si>
-    <t>Data Privacy &amp; Trade Compliance</t>
-  </si>
-  <si>
-    <t>TE9</t>
-  </si>
-  <si>
-    <t>Customer Support &amp; Experience</t>
-  </si>
-  <si>
-    <t>TE10</t>
-  </si>
-  <si>
-    <t>Sustainability &amp; E-waste Mgmt</t>
-  </si>
-  <si>
-    <t>Pharmaceuticals</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>Drug Development &amp; Clinical Trials</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>Regulatory Approvals &amp; Documentation</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>Manufacturing &amp; Cold Chain Planning</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>Quality Assurance &amp; GMP Compliance</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>Distribution &amp; Cold Chain Execution</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>Pharmacy/Distributor Fulfillment</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>Pharmacovigilance &amp; Recall Mgmt</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>Patient Access &amp; Engagement</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>Data &amp; Digital Therapeutics</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>ESG &amp; Public Health Reporting</t>
-  </si>
-  <si>
-    <t>Government &amp; Defense (Procurement &amp; Logistics Focus)</t>
-  </si>
-  <si>
-    <t>GD1</t>
-  </si>
-  <si>
-    <t>Mission/Program Requirement Planning</t>
-  </si>
-  <si>
-    <t>GD2</t>
-  </si>
-  <si>
-    <t>Budgeting &amp; Procurement Authorization</t>
-  </si>
-  <si>
-    <t>GD3</t>
-  </si>
-  <si>
-    <t>Vendor Prequalification &amp; Contracting</t>
-  </si>
-  <si>
-    <t>GD4</t>
-  </si>
-  <si>
-    <t>Inventory &amp; Depot Operations</t>
-  </si>
-  <si>
-    <t>GD5</t>
-  </si>
-  <si>
-    <t>Secure Logistics &amp; Distribution</t>
-  </si>
-  <si>
-    <t>GD6</t>
-  </si>
-  <si>
-    <t>Service Readiness &amp; Lifecycle Support</t>
-  </si>
-  <si>
-    <t>GD7</t>
-  </si>
-  <si>
-    <t>Risk, Audit &amp; Compliance</t>
-  </si>
-  <si>
-    <t>GD8</t>
-  </si>
-  <si>
-    <t>Inter-agency Collaboration</t>
-  </si>
-  <si>
-    <t>GD9</t>
-  </si>
-  <si>
-    <t>Technology &amp; Systems Integration</t>
-  </si>
-  <si>
-    <t>GD10</t>
-  </si>
-  <si>
-    <t>Sustainability &amp; Public Accountability</t>
-  </si>
-  <si>
-    <t>Perishable (Food, Flowers, Pharma, etc.)</t>
-  </si>
-  <si>
-    <t>PR1</t>
-  </si>
-  <si>
-    <t>Farm/Source Planning &amp; Harvest Scheduling</t>
-  </si>
-  <si>
-    <t>PR2</t>
-  </si>
-  <si>
-    <t>Pre-Cooling, Sorting &amp; Grading</t>
-  </si>
-  <si>
-    <t>PR3</t>
-  </si>
-  <si>
-    <t>Cold Chain Logistics &amp; Packaging</t>
-  </si>
-  <si>
-    <t>PR4</t>
-  </si>
-  <si>
-    <t>Transit Monitoring &amp; Temp Control</t>
-  </si>
-  <si>
-    <t>PR5</t>
-  </si>
-  <si>
-    <t>Distribution to Retail/Wholesale Nodes</t>
-  </si>
-  <si>
-    <t>PR6</t>
-  </si>
-  <si>
-    <t>Inventory Rotation &amp; Expiry Control</t>
-  </si>
-  <si>
-    <t>PR7</t>
-  </si>
-  <si>
-    <t>Last Mile Delivery &amp; Time Slot Mgmt</t>
-  </si>
-  <si>
-    <t>PR8</t>
-  </si>
-  <si>
-    <t>Quality, Safety &amp; Certifications</t>
-  </si>
-  <si>
-    <t>PR9</t>
-  </si>
-  <si>
-    <t>Consumer Education &amp; Traceability</t>
-  </si>
-  <si>
-    <t>PR10</t>
-  </si>
-  <si>
-    <t>Waste, Recall &amp; Circular Models</t>
-  </si>
-  <si>
-    <t>Strategic Alignment</t>
-  </si>
-  <si>
-    <t>Content Development &amp; Planning</t>
-  </si>
-  <si>
-    <t>Production &amp; Creation</t>
-  </si>
-  <si>
-    <t>Post-Production &amp; Packaging</t>
-  </si>
-  <si>
-    <t>Distribution &amp; Monetization</t>
-  </si>
-  <si>
-    <t>Marketing &amp; Audience Engagement</t>
-  </si>
-  <si>
-    <t>Performance Management</t>
-  </si>
-  <si>
-    <t>Continuous Improvement</t>
-  </si>
-  <si>
-    <t>Media Production</t>
-  </si>
-  <si>
     <t>Logistics (3PL/4PL/Forwarders - NVOCC)</t>
   </si>
   <si>
-    <t>MP1</t>
-  </si>
-  <si>
-    <t>MP2</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>MP4</t>
-  </si>
-  <si>
-    <t>MP5</t>
-  </si>
-  <si>
-    <t>MP6</t>
-  </si>
-  <si>
-    <t>MP7</t>
-  </si>
-  <si>
-    <t>MP8</t>
-  </si>
-  <si>
     <t>Business Complexity</t>
   </si>
   <si>
@@ -1338,9 +670,6 @@
   </si>
   <si>
     <t>This is a temporary description and need to be changed later. Make sure to change it during production deployment</t>
-  </si>
-  <si>
-    <t>Business Type</t>
   </si>
   <si>
     <t>Shipping</t>
@@ -1419,6 +748,27 @@
 Example 2
 Build
 </t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Parent Stage</t>
+  </si>
+  <si>
+    <t>Shipping (VOCC)</t>
+  </si>
+  <si>
+    <t>Shipping - Customer Engagement &amp; Demand Planning</t>
+  </si>
+  <si>
+    <t>Shipping - Network &amp; Trade Lane Design</t>
+  </si>
+  <si>
+    <t>Shipping - Capacity &amp; Equipment Planning</t>
+  </si>
+  <si>
+    <t>Shipping - Vessel Scheduling &amp; Operations</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +857,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,6 +867,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1561,7 +917,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1577,6 +932,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1917,7 +1274,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1929,60 +1286,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>422</v>
+        <v>226</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>423</v>
+        <v>200</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>424</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>412</v>
+        <v>197</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>425</v>
+        <v>202</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>426</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>427</v>
+        <v>204</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>428</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>429</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2029,18 +1386,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F102E35E-4935-5A42-B778-F8B556F32FC8}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.08203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.08203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -2053,13 +1410,13 @@
       <c r="C1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>174</v>
@@ -2067,13 +1424,13 @@
       <c r="C2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>430</v>
+      <c r="D2" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>176</v>
@@ -2081,13 +1438,13 @@
       <c r="C3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>430</v>
+      <c r="D3" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>178</v>
@@ -2095,13 +1452,13 @@
       <c r="C4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>430</v>
+      <c r="D4" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>180</v>
@@ -2109,13 +1466,13 @@
       <c r="C5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>430</v>
+      <c r="D5" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>182</v>
@@ -2123,13 +1480,13 @@
       <c r="C6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>430</v>
+      <c r="D6" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>184</v>
@@ -2137,13 +1494,13 @@
       <c r="C7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>430</v>
+      <c r="D7" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>186</v>
@@ -2151,13 +1508,13 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>430</v>
+      <c r="D8" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>187</v>
@@ -2165,13 +1522,13 @@
       <c r="C9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>430</v>
+      <c r="D9" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>189</v>
@@ -2179,13 +1536,13 @@
       <c r="C10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>430</v>
+      <c r="D10" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>191</v>
@@ -2193,1520 +1550,8 @@
       <c r="C11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>412</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>412</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>412</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>412</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D11" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>412</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>255</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>255</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>256</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>256</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>256</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>256</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>277</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>277</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>277</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>277</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>277</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>277</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>277</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>298</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>298</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>298</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>298</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>298</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>298</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>298</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>298</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>319</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>319</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>319</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>319</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>319</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>319</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>319</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>319</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>319</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>319</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>340</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>340</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>340</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>340</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>340</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>340</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>340</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>340</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>340</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>340</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>361</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>361</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>361</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>361</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>361</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>361</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>361</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>361</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>361</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>361</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>382</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>382</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>382</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>382</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>382</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>382</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>382</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>382</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>382</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>382</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>411</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>411</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>411</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>411</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>411</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>411</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>411</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>411</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3716,6 +1561,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD43BBD-AA24-423F-8AED-D2962EE64FF8}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="43.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C05544-758B-B04D-A4AF-7A1FFF8EC523}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -3855,7 +1854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEDF3A-A049-6040-B82C-825BD7BF40EE}">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -4285,8 +2284,8 @@
       <c r="L10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>433</v>
+      <c r="M10" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -4531,8 +2530,8 @@
       <c r="L16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>433</v>
+      <c r="M16" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -4572,8 +2571,8 @@
       <c r="L17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>255</v>
+      <c r="M17" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -4613,8 +2612,8 @@
       <c r="L18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>255</v>
+      <c r="M18" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -4695,8 +2694,8 @@
       <c r="L20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="14" t="s">
-        <v>255</v>
+      <c r="M20" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -4736,8 +2735,8 @@
       <c r="L21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>433</v>
+      <c r="M21" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -4777,8 +2776,8 @@
       <c r="L22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>434</v>
+      <c r="M22" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -4818,8 +2817,8 @@
       <c r="L23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>255</v>
+      <c r="M23" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4828,7 +2827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DDD45B-FE83-47AE-9E68-616AB411BDE9}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -4845,21 +2844,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>436</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>438</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4867,10 +2866,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4878,10 +2877,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4889,10 +2888,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4900,180 +2899,180 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>435</v>
+      <c r="G19" s="16" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5081,10 +3080,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -5092,10 +3091,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -5103,10 +3102,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>439</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -5114,10 +3113,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>446</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -5125,10 +3124,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -5136,10 +3135,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -5152,36 +3151,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CB7485-6F0B-48FA-9047-35ECC73755D2}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.08203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="37.08203125" style="18" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>450</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>454</v>
+        <v>228</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>455</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5189,16 +3188,16 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>456</v>
+      <c r="D2" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5206,16 +3205,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>456</v>
+      <c r="D3" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5223,16 +3222,16 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>456</v>
+      <c r="D4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5240,16 +3239,16 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>456</v>
+      <c r="D5" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5257,16 +3256,16 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>456</v>
+      <c r="D6" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5274,16 +3273,16 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>456</v>
+      <c r="D7" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5291,16 +3290,16 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>456</v>
+      <c r="D8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5308,16 +3307,16 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>456</v>
+      <c r="D9" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5325,16 +3324,16 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>456</v>
+      <c r="D10" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5342,16 +3341,16 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>456</v>
+      <c r="D11" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5359,16 +3358,16 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>456</v>
+      <c r="D12" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5376,16 +3375,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>456</v>
+      <c r="D13" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5393,16 +3392,16 @@
         <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>456</v>
+      <c r="D14" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5410,16 +3409,16 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>456</v>
+      <c r="D15" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5427,16 +3426,16 @@
         <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>456</v>
+      <c r="D16" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5444,16 +3443,16 @@
         <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>456</v>
+      <c r="D17" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5461,16 +3460,16 @@
         <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>456</v>
+      <c r="D18" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5478,16 +3477,16 @@
         <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>456</v>
+      <c r="D19" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5495,16 +3494,16 @@
         <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>456</v>
+      <c r="D20" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5512,16 +3511,16 @@
         <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>456</v>
+      <c r="D21" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5529,16 +3528,16 @@
         <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>456</v>
+      <c r="D22" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="64" x14ac:dyDescent="0.4">
@@ -5546,16 +3545,16 @@
         <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>456</v>
+      <c r="D23" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
